--- a/biology/Médecine/Suture_lambdoïde/Suture_lambdoïde.xlsx
+++ b/biology/Médecine/Suture_lambdoïde/Suture_lambdoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Suture_lambdo%C3%AFde</t>
+          <t>Suture_lambdoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La suture lambdoïde (ou suture occipito-pariétale ou suture pariéto-occipitale) est la suture entre le bord postérieur des os pariétaux et l'écaille de l'os occipital. C'est une suture denticulée.
 Elle rejoint la suture sagittale au niveau du lambda et est en continuité avec la suture occipito-mastoïdienne et avec la suture pariéto-mastoïdienne au niveau de l'astérion.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Suture_lambdo%C3%AFde</t>
+          <t>Suture_lambdoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe une forme très rare de craniosynostose où la suture lambdoïde fusionne prématurément[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une forme très rare de craniosynostose où la suture lambdoïde fusionne prématurément.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Suture_lambdo%C3%AFde</t>
+          <t>Suture_lambdoïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La suture lambdoïde est nommée en raison de sa forme en forme de lambda majuscule.
 </t>
